--- a/data/catalogos.xlsx
+++ b/data/catalogos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APRENDA - Fundamentos de analítica de datos con Python - Parte I\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C0AA8-3A1F-4EFA-B0FC-88721985368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9465A79-695B-4BF8-A17F-30016FE083D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categóricos" sheetId="4" r:id="rId1"/>
@@ -33,15 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>codigo_vista</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
-    <t>codigo_condicion</t>
-  </si>
-  <si>
     <t>A-EXCELENTES CONDICIONES</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
   </si>
   <si>
     <t>E-SIN VISTA</t>
-  </si>
-  <si>
-    <t>codigo_pais</t>
   </si>
   <si>
     <t>nombre_pais</t>
@@ -152,6 +143,15 @@
       </rPr>
       <t xml:space="preserve"> CONDICIONES</t>
     </r>
+  </si>
+  <si>
+    <t>cvevisita</t>
+  </si>
+  <si>
+    <t>cvecondicion</t>
+  </si>
+  <si>
+    <t>cvepais</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5C68116-9A20-4116-811B-7A62D0ED927C}" name="VISTAS" displayName="VISTAS" ref="A2:B7" totalsRowShown="0">
   <autoFilter ref="A2:B7" xr:uid="{E5C68116-9A20-4116-811B-7A62D0ED927C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BB86260-6D78-4060-9316-0FDF9D33499E}" name="codigo_vista" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6BB86260-6D78-4060-9316-0FDF9D33499E}" name="cvevisita" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3C520D8D-7F47-42FE-900D-25CFA7FACA35}" name="descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -845,7 +845,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBB02E1-DA6B-45FB-B1B6-BC55D8805D88}" name="CONDICIONES" displayName="CONDICIONES" ref="A10:B15" totalsRowShown="0">
   <autoFilter ref="A10:B15" xr:uid="{FEBB02E1-DA6B-45FB-B1B6-BC55D8805D88}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{16FFE085-7A1C-4523-A8BE-A671ACC71E62}" name="codigo_condicion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16FFE085-7A1C-4523-A8BE-A671ACC71E62}" name="cvecondicion" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B1FAB591-78D9-4D5F-90F3-C882CCC0F587}" name="descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B28"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,15 +1163,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,20 +1211,20 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,15 +1264,15 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalogos.xlsx
+++ b/data/catalogos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APRENDA - Fundamentos de analítica de datos con Python - Parte I\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrRamirez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9465A79-695B-4BF8-A17F-30016FE083D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEB8D9-01E1-472C-8513-85A3F1689237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categóricos" sheetId="4" r:id="rId1"/>
@@ -145,13 +145,13 @@
     </r>
   </si>
   <si>
-    <t>cvevisita</t>
-  </si>
-  <si>
     <t>cvecondicion</t>
   </si>
   <si>
     <t>cvepais</t>
+  </si>
+  <si>
+    <t>cvevista</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E5C68116-9A20-4116-811B-7A62D0ED927C}" name="VISTAS" displayName="VISTAS" ref="A2:B7" totalsRowShown="0">
   <autoFilter ref="A2:B7" xr:uid="{E5C68116-9A20-4116-811B-7A62D0ED927C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BB86260-6D78-4060-9316-0FDF9D33499E}" name="cvevisita" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6BB86260-6D78-4060-9316-0FDF9D33499E}" name="cvevista" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3C520D8D-7F47-42FE-900D-25CFA7FACA35}" name="descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1152,29 +1152,29 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1214,20 +1214,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1267,15 +1267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>5</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>7</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>9</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>10</v>
       </c>
